--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="6360" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="3700" yWindow="6540" windowWidth="34100" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -27,32 +27,44 @@
     <t>Description of Implementation/Changes</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Results: youtube.txt: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nodes: 1134890 Edges: 2987624</t>
-    </r>
-  </si>
-  <si>
     <t>Too long to measure</t>
   </si>
   <si>
-    <t>Results: amazon.txt: Nodes: 334863 Edges: 925872</t>
+    <t>5.82824s</t>
+  </si>
+  <si>
+    <t>youtube.txt</t>
+  </si>
+  <si>
+    <t>amazon.txt</t>
+  </si>
+  <si>
+    <t>enron.txt</t>
+  </si>
+  <si>
+    <t>cagrqc.txt</t>
+  </si>
+  <si>
+    <t>Nodes: 5242 Edges: 28980 Triangles: 48260</t>
+  </si>
+  <si>
+    <t>Nodes: 36692 Edges: 367662 Triangles: 727044</t>
+  </si>
+  <si>
+    <t>Nodes: 334863 Edges: 925872 Triangles: 667129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nodes: 1134890 Edges: 2987624 Triangles: 3056386</t>
+  </si>
+  <si>
+    <t>Two vectors of pairs of int's, three pairs of ints stored into a struct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,8 +73,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,14 +106,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,46 +462,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>41911</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\TriangleCounter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="6540" windowWidth="34100" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="3696" yWindow="6540" windowWidth="34104" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +63,12 @@
   </si>
   <si>
     <t>Two vectors of pairs of int's, three pairs of ints stored into a struct</t>
+  </si>
+  <si>
+    <t>.421s</t>
+  </si>
+  <si>
+    <t>Map based algorithm - run on Patrick's laptop</t>
   </si>
 </sst>
 </file>
@@ -137,6 +148,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,22 +481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +520,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -521,7 +540,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41911</v>
       </c>
@@ -539,6 +558,17 @@
       </c>
       <c r="F4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>41924</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Map based algorithm - run on Patrick's laptop</t>
+  </si>
+  <si>
+    <t>11.859s</t>
+  </si>
+  <si>
+    <t>259.187s</t>
   </si>
 </sst>
 </file>
@@ -483,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -567,6 +573,12 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="6540" windowWidth="34100" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="15840" yWindow="1520" windowWidth="34100" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,51 @@
   </si>
   <si>
     <t>Two vectors of pairs of int's, three pairs of ints stored into a struct</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Graphlab's Implementation</t>
+  </si>
+  <si>
+    <t>0.753374 sec</t>
+  </si>
+  <si>
+    <t>0.195363 sec</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; g = graphlab.load_graph('http://snap.stanford.edu/data/com-Amazon.txt.gz', format='snap')</t>
+  </si>
+  <si>
+    <t>Traceback (most recent call last):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;stdin&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/Library/Python/2.7/site-packages/graphlab/data_structures/sgraph.py", line 1192, in load_graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return load_sgraph(filename, format=format)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/Library/Python/2.7/site-packages/graphlab/data_structures/sgraph.py", line 1250, in load_sgraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/Library/Python/2.7/site-packages/graphlab/cython/context.py", line 23, in __exit__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    raise exc_type(exc_value)</t>
+  </si>
+  <si>
+    <t>IOError: Cannot open http://snap.stanford.edu/data/com-Amazon.txt.gz</t>
   </si>
 </sst>
 </file>
@@ -462,74 +507,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
         <v>41911</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -538,12 +586,109 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41941</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="1520" windowWidth="34100" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="13840" yWindow="0" windowWidth="34100" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -75,34 +75,10 @@
     <t>0.195363 sec</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt; g = graphlab.load_graph('http://snap.stanford.edu/data/com-Amazon.txt.gz', format='snap')</t>
-  </si>
-  <si>
-    <t>Traceback (most recent call last):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  File "&lt;stdin&gt;", line 1, in &lt;module&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  File "/Library/Python/2.7/site-packages/graphlab/data_structures/sgraph.py", line 1192, in load_graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return load_sgraph(filename, format=format)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  File "/Library/Python/2.7/site-packages/graphlab/data_structures/sgraph.py", line 1250, in load_sgraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  File "/Library/Python/2.7/site-packages/graphlab/cython/context.py", line 23, in __exit__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    raise exc_type(exc_value)</t>
-  </si>
-  <si>
-    <t>IOError: Cannot open http://snap.stanford.edu/data/com-Amazon.txt.gz</t>
+    <t>3.10889 sec</t>
+  </si>
+  <si>
+    <t>12.6803 secs</t>
   </si>
 </sst>
 </file>
@@ -507,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -603,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -613,78 +589,6 @@
       </c>
       <c r="G5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
